--- a/conf/excel/C_N.xlsx
+++ b/conf/excel/C_N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\Final-newCA-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2B401-001A-4B45-99E3-9EE7C4B53997}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071ECB2-522D-405A-8F6B-4936B4957743}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_N.conf" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,28 @@
     <t>catalog=-1</t>
   </si>
   <si>
-    <t>生成LayerC_TrafficLight，修改C_N</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成LayerC_TrafficLight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，修改C_N</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +200,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,10 +262,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +554,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,18 +565,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -549,24 +590,24 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/conf/excel/C_N.xlsx
+++ b/conf/excel/C_N.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071ECB2-522D-405A-8F6B-4936B4957743}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="C_N.conf" sheetId="1" r:id="rId1"/>
+    <sheet name="C_N_New.conf" sheetId="2" r:id="rId1"/>
+    <sheet name="C_N.conf" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -142,36 +142,23 @@
     <t>catalog=-1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成LayerC_TrafficLight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，修改C_N</t>
-    </r>
+    <t>交通灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=010A10;&lt;SetCoord&gt;(C_N, , subnodeid, id)-&gt;GEOMETRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成C_TrafficLight并进行路口居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +192,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -254,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -268,8 +247,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,11 +535,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,18 +612,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/conf/excel/C_N.xlsx
+++ b/conf/excel/C_N.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2F499-6CDA-4211-B210-EF050897DBBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12390"/>
+    <workbookView xWindow="5220" yWindow="2280" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_N_New.conf" sheetId="2" r:id="rId1"/>
@@ -146,18 +147,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>catalog=010A10;&lt;SetCoord&gt;(C_N, , subnodeid, id)-&gt;GEOMETRY</t>
+    <t>生成C_TrafficLight并进行路口居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成C_TrafficLight并进行路口居中</t>
+    <t>catalog=010A10;&lt;SetCoord&gt;(C_N, , subnodeid, id)-&gt;GEOMETRY@FullAvg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,10 +251,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,18 +551,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -578,11 +579,11 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -612,18 +613,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
